--- a/data/long_bre/P18_3-Urba-long_bre.xlsx
+++ b/data/long_bre/P18_3-Urba-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +615,47 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,59</t>
+          <t>5,46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>60,96%</t>
+          <t>7,55</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>57,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>1,53%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>9,1%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>84,78%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 9,34</t>
+          <t>-0,58; 9,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 4,19</t>
+          <t>-4,46; 4,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 5,89</t>
+          <t>-6,87; 6,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 136,93</t>
+          <t>2,63; 12,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-41,36; 51,55</t>
+          <t>-8,34; 124,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-33,31; 49,83</t>
+          <t>-34,43; 54,11</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-33,13; 52,8</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>18,58; 183,54</t>
         </is>
       </c>
     </row>
@@ -675,37 +711,47 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-5,94</t>
+          <t>-6,16</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,45</t>
+          <t>-3,84</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-5,15</t>
+          <t>-5,42</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-7,49%</t>
+          <t>-3,49</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-5,98%</t>
+          <t>-7,75%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-7,02%</t>
+          <t>-5,23%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-7,42%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-5,2%</t>
         </is>
       </c>
     </row>
@@ -718,32 +764,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 0,74</t>
+          <t>-11,77; 0,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,11; 3,56</t>
+          <t>-10,5; 4,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,09; 2,46</t>
+          <t>-10,95; 2,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,42; 0,57</t>
+          <t>-11,72; 8,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,01; 5,19</t>
+          <t>-14,33; 0,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,53; 2,84</t>
+          <t>-13,7; 6,08</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-14,32; 3,34</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-16,37; 13,91</t>
         </is>
       </c>
     </row>
@@ -751,37 +807,47 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,37</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>4,03</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>-4,06</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>29,33%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>31,4%</t>
+          <t>22,9%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>34,42%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-16,93%</t>
         </is>
       </c>
     </row>
@@ -794,74 +860,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 4,98</t>
+          <t>-3,91; 4,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 9,22</t>
+          <t>-4,63; 9,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 8,01</t>
+          <t>-0,8; 8,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-29,8; 52,68</t>
+          <t>-15,24; 3,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-20,19; 77,62</t>
+          <t>-28,81; 50,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 85,53</t>
+          <t>-20,99; 78,34</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-6,65; 88,15</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-47,57; 21,62</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,2</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,94</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>53,69%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>45,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,3%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +956,94 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,28; 10,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 8,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 7,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,79; 137,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-20,09; 143,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,51; 66,32</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-8,95</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-8,8</t>
+          <t>3,53</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-8,23</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-11,19%</t>
+          <t>7,4</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-11,46%</t>
+          <t>46,73%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-11,11%</t>
+          <t>38,67%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>13,25%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>64,3%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1056,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-15,9; -0,13</t>
+          <t>-0,32; 9,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-16,01; -1,33</t>
+          <t>-2,19; 8,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,49; -1,37</t>
+          <t>-3,5; 6,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-19,13; -0,22</t>
+          <t>0,5; 13,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-19,98; -2,18</t>
+          <t>-2,15; 111,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,5; -1,85</t>
+          <t>-18,08; 136,44</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-20,59; 61,01</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-0,02; 159,4</t>
         </is>
       </c>
     </row>
@@ -983,37 +1099,47 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,75</t>
+          <t>-10,66</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,86</t>
+          <t>-7,86</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,12</t>
+          <t>-7,89</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>36,39%</t>
+          <t>-11,35</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>33,56%</t>
+          <t>-13,07%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>50,38%</t>
+          <t>-10,37%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-10,68%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-15,23%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1152,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 9,23</t>
+          <t>-16,94; -4,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 11,51</t>
+          <t>-15,47; 0,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,85; 10,69</t>
+          <t>-14,43; -1,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-32,67; 138,63</t>
+          <t>-19,28; -2,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 102,33</t>
+          <t>-20,03; -5,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,62; 112,88</t>
+          <t>-19,38; 0,41</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-18,66; -1,47</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-24,87; -3,7</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,93</t>
+          <t>5,82</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>6,02</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>45,27%</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-11,04%</t>
+          <t>72,19%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-8,0%</t>
+          <t>28,77%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>49,83%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>28,32%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1248,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 12,59</t>
+          <t>0,99; 10,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 7,52</t>
+          <t>-2,34; 10,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,64; 8,87</t>
+          <t>0,83; 10,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-32,71; 309,18</t>
+          <t>-2,3; 10,29</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-68,39; 174,29</t>
+          <t>3,86; 168,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-63,42; 106,05</t>
+          <t>-13,54; 92,97</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3,85; 114,14</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-14,33; 94,07</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1291,47 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-2,06</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>6,88</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-9,64</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-2,6%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-12,53%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1344,94 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-14,63; 9,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 22,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-22,71; 4,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-17,26; 13,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 38,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-27,05; 6,19</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>5,02</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-5,79</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>10,81</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-15,37%</t>
+          <t>4,35</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-26,65%</t>
+          <t>54,12%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>128,64%</t>
+          <t>-1,9%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-13,44%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>35,81%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1444,90 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,55; 7,44</t>
+          <t>-4,61; 13,42</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-20,24; 6,4</t>
+          <t>-8,74; 8,67</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,52; 20,53</t>
+          <t>-17,18; 7,45</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-66,09; 120,02</t>
+          <t>-8,58; 15,45</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-66,28; 51,84</t>
+          <t>-34,14; 274,79</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,13; 453,05</t>
+          <t>-63,33; 163,39</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-66,53; 83,95</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-46,35; 254,35</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>5,25</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>8,04</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>-7,78</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>56,31%</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>14,9%</t>
+          <t>-0,01%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>11,97%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-10,33%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>2,74%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1540,42 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2,07; 8,5</t>
+          <t>-11,86; 12,95</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 4,87</t>
+          <t>-6,03; 25,36</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 4,82</t>
+          <t>-20,56; 5,87</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>17,3; 108,99</t>
+          <t>-18,68; 25,13</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-15,06; 63,43</t>
+          <t>-14,23; 18,85</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-17,31; 38,52</t>
+          <t>-7,72; 47,96</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-25,04; 8,96</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-24,95; 54,86</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1583,47 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-6,68</t>
+          <t>-5,01</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-4,82</t>
+          <t>-7,86</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-6,87</t>
+          <t>9,83</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-8,39%</t>
+          <t>-6,01</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-6,46%</t>
+          <t>-38,07%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-9,28%</t>
+          <t>-33,98%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>104,62%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-22,17%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1636,42 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-10,87; -1,54</t>
+          <t>-14,24; 3,8</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-10,13; -0,2</t>
+          <t>-26,25; 4,07</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-10,71; -2,15</t>
+          <t>0,77; 18,51</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-13,2; -1,97</t>
+          <t>-31,26; 12,05</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-12,96; -0,3</t>
+          <t>-76,57; 48,3</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-14,27; -3,11</t>
+          <t>-72,03; 30,69</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>2,5; 337,23</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-75,86; 88,75</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1679,47 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>21,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>47,26%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,44 +1732,449 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 4,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 7,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>2,24; 8,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-21,31; 53,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 57,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>16,94; 83,65</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>5,16</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>1,45</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>7,06</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>52,38%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>14,66%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>8,12%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>68,22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>1,49; 8,0</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-1,93; 4,8</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>-3,69; 4,81</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>3,58; 11,27</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>11,4; 93,28</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-16,67; 57,58</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-20,48; 38,49</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>26,24; 131,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>-7,22</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>-4,01</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>-6,66</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>-5,99</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>-9,01%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-5,45%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-9,04%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-8,65%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-11,23; -3,23</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-8,78; 2,51</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-10,86; -2,27</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-11,9; 1,16</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-13,72; -4,25</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-11,4; 3,47</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-14,39; -3,22</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-16,35; 1,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>2,06</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>2,57</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>5,46</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>-1,07</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>20,49%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>15,54%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>47,14%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-5,24%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-0,92; 5,05</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-3,42; 6,78</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>2,46; 8,52</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-8,63; 4,21</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-8,24; 58,78</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-17,24; 49,32</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>17,31; 86,33</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-32,27; 25,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
